--- a/Cartel1.xlsx
+++ b/Cartel1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94325C12-A438-45A0-B4D3-E9D4B24C0701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6539FECB-4896-49B0-9497-59FB6F232BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6267AE5A-9BEF-4AAA-ADA3-8CA9030E9A8C}"/>
   </bookViews>
@@ -153,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -170,31 +170,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="148">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="42">
     <dxf>
       <font>
         <color auto="1"/>
@@ -209,1043 +192,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1962,7 +908,7 @@
   <dimension ref="A1:CH37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="AU18" sqref="AU18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2943,7 +1889,7 @@
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AB14" s="1">
-        <f>SUMPRODUCT(D14:E15,V15:W16)</f>
+        <f>SUMPRODUCT(D13:E14,V15:W16)</f>
         <v>0</v>
       </c>
       <c r="AC14" s="1">
@@ -3028,27 +1974,27 @@
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="1">
-        <f>SUMPRODUCT(D15:E16,V15:W16)</f>
+        <f>SUMPRODUCT(D14:E15,V15:W16)</f>
         <v>0</v>
       </c>
       <c r="AC15" s="1">
-        <f>SUMPRODUCT(E15:F16,V15:W16)</f>
+        <f>SUMPRODUCT(E14:F15,V15:W16)</f>
         <v>0</v>
       </c>
       <c r="AD15" s="1">
-        <f>SUMPRODUCT(F15:G16,V15:W16)</f>
+        <f>SUMPRODUCT(F14:G15,V15:W16)</f>
         <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <f>SUMPRODUCT(G15:H16,V15:W16)</f>
+        <f>SUMPRODUCT(G14:H15,V15:W16)</f>
         <v>0</v>
       </c>
       <c r="AF15" s="1">
-        <f>SUMPRODUCT(H15:I16,V15:W16)</f>
+        <f>SUMPRODUCT(H14:I15,V15:W16)</f>
         <v>0</v>
       </c>
       <c r="AG15" s="1">
-        <f>SUMPRODUCT(I15:J16,V15:W16)</f>
+        <f>SUMPRODUCT(I14:J15,V15:W16)</f>
         <v>0</v>
       </c>
       <c r="AH15" s="3"/>
@@ -3085,7 +2031,7 @@
       <c r="H16" s="1">
         <v>0</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="12">
         <v>0</v>
       </c>
       <c r="J16" s="1">
@@ -3107,27 +2053,27 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="1">
-        <f>SUMPRODUCT(D16:E17,V15:W16)</f>
+        <f>SUMPRODUCT(D15:E16,V15:W16)</f>
         <v>0</v>
       </c>
       <c r="AC16" s="1">
-        <f>SUMPRODUCT(E16:F17,V15:W16)</f>
+        <f>SUMPRODUCT(E15:F16,V15:W16)</f>
         <v>0</v>
       </c>
       <c r="AD16" s="1">
-        <f>SUMPRODUCT(F16:G17,V15:W16)</f>
+        <f>SUMPRODUCT(F15:G16,V15:W16)</f>
         <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <f>SUMPRODUCT(G16:H17,V15:W16)</f>
+        <f>SUMPRODUCT(G15:H16,V15:W16)</f>
         <v>0</v>
       </c>
       <c r="AF16" s="1">
-        <f>SUMPRODUCT(H16:I17,V15:W16)</f>
+        <f>SUMPRODUCT(H15:I16,V15:W16)</f>
         <v>0</v>
       </c>
       <c r="AG16" s="1">
-        <f>SUMPRODUCT(I16:J17,V15:W16)</f>
+        <f>SUMPRODUCT(I15:J16,V15:W16)</f>
         <v>0</v>
       </c>
       <c r="AH16" s="3"/>
@@ -3182,27 +2128,27 @@
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
       <c r="AB17" s="1">
-        <f>SUMPRODUCT(D17:E18,V15:W16)</f>
+        <f>SUMPRODUCT(D16:E17,V15:W16)</f>
         <v>0</v>
       </c>
       <c r="AC17" s="1">
-        <f>SUMPRODUCT(E17:F18,V15:W16)</f>
+        <f>SUMPRODUCT(E16:F17,V15:W16)</f>
         <v>0</v>
       </c>
       <c r="AD17" s="1">
-        <f>SUMPRODUCT(F17:G18,V15:W16)</f>
+        <f>SUMPRODUCT(F16:G17,V15:W16)</f>
         <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <f>SUMPRODUCT(G17:H18,V15:W16)</f>
+        <f>SUMPRODUCT(G16:H17,V15:W16)</f>
         <v>0</v>
       </c>
       <c r="AF17" s="1">
-        <f>SUMPRODUCT(H17:I18,V15:W16)</f>
+        <f>SUMPRODUCT(H16:I17,V15:W16)</f>
         <v>0</v>
       </c>
       <c r="AG17" s="1">
-        <f>SUMPRODUCT(I17:J18,V15:W16)</f>
+        <f>SUMPRODUCT(I16:J17,V15:W16)</f>
         <v>0</v>
       </c>
       <c r="AH17" s="3"/>
@@ -4272,172 +3218,172 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:T4 A3:AA3 W4:AA4 AA13 A11:AF11 A12:D17 M10:AF10 M5:AA8 A5:F8 A9:D9 F9 A10:F10 A30:Q35 K12:AA12 K13:Y13 K14:AA17 AH23:AJ23 AI32:AJ32 A1:AW2 AY1:CT37 AV3:AW8 A18:AW20 AV10:AW17 M9:AW9 AH21:AW22 A38:CT40 A36:AW37 AI30:AW31 AH24:AW26 AI33:AW35 AL32:AW32 AL23:AW23 A21:R23 A25:R26 A24:D24 F24:R24 A27:AW29">
-    <cfRule type="cellIs" dxfId="1" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="61" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="62" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22 T21:AA21 W22:AA22 T23:AA26">
-    <cfRule type="cellIs" dxfId="41" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="57" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="58" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB12:AG17">
-    <cfRule type="cellIs" dxfId="39" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="53" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE21:AE26">
-    <cfRule type="cellIs" dxfId="37" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="29" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF21:AF26">
-    <cfRule type="cellIs" dxfId="35" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG21:AG26">
-    <cfRule type="cellIs" dxfId="33" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="25" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA31 S32:AA35 S31:Y31 S30:AA30">
-    <cfRule type="cellIs" dxfId="31" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="24" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB3:AG8">
-    <cfRule type="cellIs" dxfId="29" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="37" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB21:AB26">
-    <cfRule type="cellIs" dxfId="27" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="36" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC21:AC26">
-    <cfRule type="cellIs" dxfId="25" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="33" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="34" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD21:AD26">
-    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="31" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB30:AB35">
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC30:AC35">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD30:AD35">
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE30:AE35">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF30:AF35">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG30:AG35">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:J17">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN14">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN5">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK5">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK5:AK32">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Cartel1.xlsx
+++ b/Cartel1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6539FECB-4896-49B0-9497-59FB6F232BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E565BFE-7276-498A-B853-C343647B6765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6267AE5A-9BEF-4AAA-ADA3-8CA9030E9A8C}"/>
   </bookViews>
@@ -36,19 +36,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>FILTER 2 BACKSLASH</t>
-  </si>
-  <si>
-    <t>FILTER 2 SLASH</t>
-  </si>
-  <si>
-    <t>FILTER 2 VERTICAL LINE</t>
-  </si>
-  <si>
     <t>LINE TO RECOGNIZE</t>
   </si>
   <si>
-    <t>FILTER 2 HORIZONTAL LINE</t>
+    <t>FILTER 1 - SLASH</t>
+  </si>
+  <si>
+    <t>FILTER 2 - VERTICAL LINE</t>
+  </si>
+  <si>
+    <t>FILTER 3 - BACKSLASH</t>
+  </si>
+  <si>
+    <t>FILTER 4 - HORIZONTAL LINE</t>
   </si>
 </sst>
 </file>
@@ -908,7 +908,7 @@
   <dimension ref="A1:CH37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="AU18" sqref="AU18"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1024,31 +1024,30 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
-      <c r="AB3" s="1">
+      <c r="AC3" s="1">
         <f>SUMPRODUCT(D11:E12,V6:W7)</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AD3" s="1">
         <f>SUMPRODUCT(E11:F12,V6:W7)</f>
         <v>0</v>
       </c>
-      <c r="AD3" s="1">
+      <c r="AE3" s="1">
         <f>SUMPRODUCT(F11:G12,V6:W7)</f>
         <v>0</v>
       </c>
-      <c r="AE3" s="1">
+      <c r="AF3" s="1">
         <f>SUMPRODUCT(G11:H12,V6:W7)</f>
         <v>0</v>
       </c>
-      <c r="AF3" s="1">
+      <c r="AG3" s="1">
         <f>SUMPRODUCT(H11:I12,V6:W7)</f>
         <v>0</v>
       </c>
-      <c r="AG3" s="1">
+      <c r="AH3" s="1">
         <f>SUMPRODUCT(I11:J12,V6:W7)</f>
         <v>0</v>
       </c>
-      <c r="AH3" s="3"/>
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
       <c r="AK3" s="3"/>
@@ -1072,8 +1071,7 @@
       <c r="A4" s="9"/>
       <c r="N4" s="9"/>
       <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="U4" s="3"/>
@@ -1083,31 +1081,30 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
-      <c r="AB4" s="1">
+      <c r="AC4" s="1">
         <f>SUMPRODUCT(D12:E13,V6:W7)</f>
         <v>0</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AD4" s="1">
         <f>SUMPRODUCT(E12:F13,V6:W7)</f>
         <v>0</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AE4" s="1">
         <f>SUMPRODUCT(F12:G13,V6:W7)</f>
         <v>0</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AF4" s="1">
         <f>SUMPRODUCT(G12:H13,V6:W7)</f>
         <v>0</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AG4" s="1">
         <f>SUMPRODUCT(H12:I13,V6:W7)</f>
         <v>0</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AH4" s="1">
         <f>SUMPRODUCT(I12:J13,V6:W7)</f>
         <v>0</v>
       </c>
-      <c r="AH4" s="3"/>
       <c r="AI4" s="3"/>
       <c r="AJ4" s="3"/>
       <c r="AK4" s="3"/>
@@ -1140,35 +1137,34 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
-      <c r="AB5" s="1">
+      <c r="AC5" s="1">
         <f>SUMPRODUCT(D13:E14,V6:W7)</f>
         <v>0</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AD5" s="1">
         <f>SUMPRODUCT(E13:F14,V6:W7)</f>
         <v>0</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AE5" s="1">
         <f>SUMPRODUCT(F13:G14,V6:W7)</f>
         <v>0</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AF5" s="1">
         <f>SUMPRODUCT(G13:H14,V6:W7)</f>
         <v>0</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AG5" s="1">
         <f>SUMPRODUCT(H13:I14,V6:W7)</f>
         <v>0</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AH5" s="1">
         <f>SUMPRODUCT(I13:J14,V6:W7)</f>
         <v>0</v>
       </c>
-      <c r="AH5" s="3"/>
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
       <c r="AK5" s="5">
-        <f>MAX(AB3:AG8)</f>
+        <f>MAX(AC3:AH8)</f>
         <v>0</v>
       </c>
       <c r="AL5" s="3"/>
@@ -1207,31 +1203,30 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
-      <c r="AB6" s="1">
+      <c r="AC6" s="1">
         <f>SUMPRODUCT(D14:E15,V6:W7)</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AD6" s="1">
         <f>SUMPRODUCT(E14:F15,V6:W7)</f>
         <v>0</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AE6" s="1">
         <f>SUMPRODUCT(F14:G15,V6:W7)</f>
         <v>0</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AF6" s="1">
         <f>SUMPRODUCT(G14:H15,V6:W7)</f>
         <v>0</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AG6" s="1">
         <f>SUMPRODUCT(H14:I15,V6:W7)</f>
         <v>0</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AH6" s="1">
         <f>SUMPRODUCT(I14:J15,V6:W7)</f>
         <v>0</v>
       </c>
-      <c r="AH6" s="3"/>
       <c r="AI6" s="3"/>
       <c r="AJ6" s="3"/>
       <c r="AK6" s="3"/>
@@ -1304,31 +1299,30 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
-      <c r="AB7" s="1">
+      <c r="AC7" s="1">
         <f>SUMPRODUCT(D15:E16,V6:W7)</f>
         <v>0</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AD7" s="1">
         <f>SUMPRODUCT(E15:F16,V6:W7)</f>
         <v>0</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AE7" s="1">
         <f>SUMPRODUCT(F15:G16,V6:W7)</f>
         <v>0</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AF7" s="1">
         <f>SUMPRODUCT(G15:H16,V6:W7)</f>
         <v>0</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AG7" s="1">
         <f>SUMPRODUCT(H15:I16,V6:W7)</f>
         <v>0</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AH7" s="1">
         <f>SUMPRODUCT(I15:J16,V6:W7)</f>
         <v>0</v>
       </c>
-      <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3"/>
@@ -1397,31 +1391,30 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
-      <c r="AB8" s="1">
+      <c r="AC8" s="1">
         <f>SUMPRODUCT(D16:E17,V6:W7)</f>
         <v>0</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AD8" s="1">
         <f>SUMPRODUCT(E16:F17,V6:W7)</f>
         <v>0</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AE8" s="1">
         <f>SUMPRODUCT(F16:G17,V6:W7)</f>
         <v>0</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AF8" s="1">
         <f>SUMPRODUCT(G16:H17,V6:W7)</f>
         <v>0</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AG8" s="1">
         <f>SUMPRODUCT(H16:I17,V6:W7)</f>
         <v>0</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AH8" s="1">
         <f>SUMPRODUCT(I16:J17,V6:W7)</f>
         <v>0</v>
       </c>
-      <c r="AH8" s="3"/>
       <c r="AI8" s="7"/>
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
@@ -1490,7 +1483,6 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
@@ -1555,7 +1547,7 @@
     <row r="10" spans="1:86" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="9"/>
       <c r="E10" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N10" s="9"/>
       <c r="R10" s="3"/>
@@ -1568,7 +1560,6 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
@@ -1643,7 +1634,6 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
@@ -1736,31 +1726,30 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
-      <c r="AB12" s="1">
+      <c r="AC12" s="1">
         <f>SUMPRODUCT(D11:E12,V15:W16)</f>
         <v>0</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AD12" s="1">
         <f>SUMPRODUCT(E11:F12,V15:W16)</f>
         <v>0</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AE12" s="1">
         <f>SUMPRODUCT(F11:G12,V15:W16)</f>
         <v>0</v>
       </c>
-      <c r="AE12" s="1">
+      <c r="AF12" s="1">
         <f>SUMPRODUCT(G11:H12,V15:W16)</f>
         <v>0</v>
       </c>
-      <c r="AF12" s="1">
+      <c r="AG12" s="1">
         <f>SUMPRODUCT(H11:I12,V15:W16)</f>
         <v>0</v>
       </c>
-      <c r="AG12" s="1">
+      <c r="AH12" s="1">
         <f>SUMPRODUCT(I11:J12,V15:W16)</f>
         <v>0</v>
       </c>
-      <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
       <c r="AJ12" s="3"/>
       <c r="AK12" s="3"/>
@@ -1813,31 +1802,30 @@
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="3"/>
-      <c r="AB13" s="1">
+      <c r="AC13" s="1">
         <f>SUMPRODUCT(D12:E13,V15:W16)</f>
         <v>0</v>
       </c>
-      <c r="AC13" s="1">
+      <c r="AD13" s="1">
         <f>SUMPRODUCT(E12:F13,V15:W16)</f>
         <v>0</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AE13" s="1">
         <f>SUMPRODUCT(F12:G13,V15:W16)</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="1">
+      <c r="AF13" s="1">
         <f>SUMPRODUCT(G12:H13,V15:W16)</f>
         <v>0</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="AG13" s="1">
         <f>SUMPRODUCT(H12:I13,V15:W16)</f>
         <v>0</v>
       </c>
-      <c r="AG13" s="1">
+      <c r="AH13" s="1">
         <f>SUMPRODUCT(I12:J13,V15:W16)</f>
         <v>0</v>
       </c>
-      <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
       <c r="AK13" s="3"/>
@@ -1888,35 +1876,34 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
-      <c r="AB14" s="1">
+      <c r="AC14" s="1">
         <f>SUMPRODUCT(D13:E14,V15:W16)</f>
         <v>0</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AD14" s="1">
         <f>SUMPRODUCT(E13:F14,V15:W16)</f>
         <v>0</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="AE14" s="1">
         <f>SUMPRODUCT(F13:G14,V15:W16)</f>
         <v>0</v>
       </c>
-      <c r="AE14" s="1">
+      <c r="AF14" s="1">
         <f>SUMPRODUCT(G13:H14,V15:W16)</f>
         <v>0</v>
       </c>
-      <c r="AF14" s="1">
+      <c r="AG14" s="1">
         <f>SUMPRODUCT(H13:I14,V15:W16)</f>
         <v>0</v>
       </c>
-      <c r="AG14" s="1">
+      <c r="AH14" s="1">
         <f>SUMPRODUCT(I13:J14,V15:W16)</f>
         <v>0</v>
       </c>
-      <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
       <c r="AK14" s="5">
-        <f>MAX(AB12:AG17)</f>
+        <f>MAX(AC12:AH17)</f>
         <v>0</v>
       </c>
       <c r="AL14" s="3"/>
@@ -1973,31 +1960,30 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
-      <c r="AB15" s="1">
+      <c r="AC15" s="1">
         <f>SUMPRODUCT(D14:E15,V15:W16)</f>
         <v>0</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AD15" s="1">
         <f>SUMPRODUCT(E14:F15,V15:W16)</f>
         <v>0</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AE15" s="1">
         <f>SUMPRODUCT(F14:G15,V15:W16)</f>
         <v>0</v>
       </c>
-      <c r="AE15" s="1">
+      <c r="AF15" s="1">
         <f>SUMPRODUCT(G14:H15,V15:W16)</f>
         <v>0</v>
       </c>
-      <c r="AF15" s="1">
+      <c r="AG15" s="1">
         <f>SUMPRODUCT(H14:I15,V15:W16)</f>
         <v>0</v>
       </c>
-      <c r="AG15" s="1">
+      <c r="AH15" s="1">
         <f>SUMPRODUCT(I14:J15,V15:W16)</f>
         <v>0</v>
       </c>
-      <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
@@ -2052,31 +2038,30 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-      <c r="AB16" s="1">
+      <c r="AC16" s="1">
         <f>SUMPRODUCT(D15:E16,V15:W16)</f>
         <v>0</v>
       </c>
-      <c r="AC16" s="1">
+      <c r="AD16" s="1">
         <f>SUMPRODUCT(E15:F16,V15:W16)</f>
         <v>0</v>
       </c>
-      <c r="AD16" s="1">
+      <c r="AE16" s="1">
         <f>SUMPRODUCT(F15:G16,V15:W16)</f>
         <v>0</v>
       </c>
-      <c r="AE16" s="1">
+      <c r="AF16" s="1">
         <f>SUMPRODUCT(G15:H16,V15:W16)</f>
         <v>0</v>
       </c>
-      <c r="AF16" s="1">
+      <c r="AG16" s="1">
         <f>SUMPRODUCT(H15:I16,V15:W16)</f>
         <v>0</v>
       </c>
-      <c r="AG16" s="1">
+      <c r="AH16" s="1">
         <f>SUMPRODUCT(I15:J16,V15:W16)</f>
         <v>0</v>
       </c>
-      <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
@@ -2127,31 +2112,30 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
-      <c r="AB17" s="1">
+      <c r="AC17" s="1">
         <f>SUMPRODUCT(D16:E17,V15:W16)</f>
         <v>0</v>
       </c>
-      <c r="AC17" s="1">
+      <c r="AD17" s="1">
         <f>SUMPRODUCT(E16:F17,V15:W16)</f>
         <v>0</v>
       </c>
-      <c r="AD17" s="1">
+      <c r="AE17" s="1">
         <f>SUMPRODUCT(F16:G17,V15:W16)</f>
         <v>0</v>
       </c>
-      <c r="AE17" s="1">
+      <c r="AF17" s="1">
         <f>SUMPRODUCT(G16:H17,V15:W16)</f>
         <v>0</v>
       </c>
-      <c r="AF17" s="1">
+      <c r="AG17" s="1">
         <f>SUMPRODUCT(H16:I17,V15:W16)</f>
         <v>0</v>
       </c>
-      <c r="AG17" s="1">
+      <c r="AH17" s="1">
         <f>SUMPRODUCT(I16:J17,V15:W16)</f>
         <v>0</v>
       </c>
-      <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
@@ -2184,7 +2168,6 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
@@ -2223,7 +2206,6 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
@@ -2262,7 +2244,6 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
@@ -2301,31 +2282,30 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
-      <c r="AB21" s="1">
+      <c r="AC21" s="1">
         <f>SUMPRODUCT(D11:E12,V24:W25)</f>
         <v>0</v>
       </c>
-      <c r="AC21" s="1">
+      <c r="AD21" s="1">
         <f>SUMPRODUCT(E11:F12,V24:W25)</f>
         <v>0</v>
       </c>
-      <c r="AD21" s="1">
+      <c r="AE21" s="1">
         <f>SUMPRODUCT(F11:G12,V24:W25)</f>
         <v>0</v>
       </c>
-      <c r="AE21" s="1">
+      <c r="AF21" s="1">
         <f>SUMPRODUCT(G11:H12,V24:W25)</f>
         <v>0</v>
       </c>
-      <c r="AF21" s="1">
+      <c r="AG21" s="1">
         <f>SUMPRODUCT(H11:I12,V24:W25)</f>
         <v>0</v>
       </c>
-      <c r="AG21" s="1">
+      <c r="AH21" s="1">
         <f>SUMPRODUCT(I11:J12,V24:W25)</f>
         <v>0</v>
       </c>
-      <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
       <c r="AJ21" s="3"/>
       <c r="AK21" s="3"/>
@@ -2349,9 +2329,8 @@
       <c r="A22" s="9"/>
       <c r="N22" s="9"/>
       <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="4" t="s">
-        <v>0</v>
+      <c r="S22" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
@@ -2360,31 +2339,30 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
-      <c r="AB22" s="1">
+      <c r="AC22" s="1">
         <f>SUMPRODUCT(D12:E13,V24:W25)</f>
         <v>0</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AD22" s="1">
         <f>SUMPRODUCT(E12:F13,V24:W25)</f>
         <v>0</v>
       </c>
-      <c r="AD22" s="1">
+      <c r="AE22" s="1">
         <f>SUMPRODUCT(F12:G13,V24:W25)</f>
         <v>0</v>
       </c>
-      <c r="AE22" s="1">
+      <c r="AF22" s="1">
         <f>SUMPRODUCT(G12:H13,V24:W25)</f>
         <v>0</v>
       </c>
-      <c r="AF22" s="1">
+      <c r="AG22" s="1">
         <f>SUMPRODUCT(H12:I13,V24:W25)</f>
         <v>0</v>
       </c>
-      <c r="AG22" s="1">
+      <c r="AH22" s="1">
         <f>SUMPRODUCT(I12:J13,V24:W25)</f>
         <v>0</v>
       </c>
-      <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
       <c r="AK22" s="3"/>
@@ -2417,35 +2395,34 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
-      <c r="AB23" s="1">
+      <c r="AC23" s="1">
         <f>SUMPRODUCT(D13:E14,V24:W25)</f>
         <v>0</v>
       </c>
-      <c r="AC23" s="1">
+      <c r="AD23" s="1">
         <f>SUMPRODUCT(E13:F14,V24:W25)</f>
         <v>0</v>
       </c>
-      <c r="AD23" s="1">
+      <c r="AE23" s="1">
         <f>SUMPRODUCT(F13:G14,V24:W25)</f>
         <v>0</v>
       </c>
-      <c r="AE23" s="1">
+      <c r="AF23" s="1">
         <f>SUMPRODUCT(G13:H14,V24:W25)</f>
         <v>0</v>
       </c>
-      <c r="AF23" s="1">
+      <c r="AG23" s="1">
         <f>SUMPRODUCT(H13:I14,V24:W25)</f>
         <v>0</v>
       </c>
-      <c r="AG23" s="1">
+      <c r="AH23" s="1">
         <f>SUMPRODUCT(I13:J14,V24:W25)</f>
         <v>0</v>
       </c>
-      <c r="AH23" s="3"/>
       <c r="AI23" s="3"/>
       <c r="AJ23" s="3"/>
       <c r="AK23" s="5">
-        <f>MAX(AB21:AG26)</f>
+        <f>MAX(AC21:AH26)</f>
         <v>0</v>
       </c>
       <c r="AL23" s="3"/>
@@ -2484,31 +2461,30 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
-      <c r="AB24" s="1">
+      <c r="AC24" s="1">
         <f>SUMPRODUCT(D14:E15,V24:W25)</f>
         <v>0</v>
       </c>
-      <c r="AC24" s="1">
+      <c r="AD24" s="1">
         <f>SUMPRODUCT(E14:F15,V24:W25)</f>
         <v>0</v>
       </c>
-      <c r="AD24" s="1">
+      <c r="AE24" s="1">
         <f>SUMPRODUCT(F14:G15,V24:W25)</f>
         <v>0</v>
       </c>
-      <c r="AE24" s="1">
+      <c r="AF24" s="1">
         <f>SUMPRODUCT(G14:H15,V24:W25)</f>
         <v>0</v>
       </c>
-      <c r="AF24" s="1">
+      <c r="AG24" s="1">
         <f>SUMPRODUCT(H14:I15,V24:W25)</f>
         <v>0</v>
       </c>
-      <c r="AG24" s="1">
+      <c r="AH24" s="1">
         <f>SUMPRODUCT(I14:J15,V24:W25)</f>
         <v>0</v>
       </c>
-      <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3"/>
       <c r="AK24" s="3"/>
@@ -2545,31 +2521,30 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
-      <c r="AB25" s="1">
+      <c r="AC25" s="1">
         <f>SUMPRODUCT(D15:E16,V24:W25)</f>
         <v>0</v>
       </c>
-      <c r="AC25" s="1">
+      <c r="AD25" s="1">
         <f>SUMPRODUCT(E15:F16,V24:W25)</f>
         <v>0</v>
       </c>
-      <c r="AD25" s="1">
+      <c r="AE25" s="1">
         <f>SUMPRODUCT(F15:G16,V24:W25)</f>
         <v>0</v>
       </c>
-      <c r="AE25" s="1">
+      <c r="AF25" s="1">
         <f>SUMPRODUCT(G15:H16,V24:W25)</f>
         <v>0</v>
       </c>
-      <c r="AF25" s="1">
+      <c r="AG25" s="1">
         <f>SUMPRODUCT(H15:I16,V24:W25)</f>
         <v>0</v>
       </c>
-      <c r="AG25" s="1">
+      <c r="AH25" s="1">
         <f>SUMPRODUCT(I15:J16,V24:W25)</f>
         <v>0</v>
       </c>
-      <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
       <c r="AK25" s="3"/>
@@ -2602,31 +2577,30 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
-      <c r="AB26" s="1">
+      <c r="AC26" s="1">
         <f>SUMPRODUCT(D16:E17,V24:W25)</f>
         <v>0</v>
       </c>
-      <c r="AC26" s="1">
+      <c r="AD26" s="1">
         <f>SUMPRODUCT(E16:F17,V24:W25)</f>
         <v>0</v>
       </c>
-      <c r="AD26" s="1">
+      <c r="AE26" s="1">
         <f>SUMPRODUCT(F16:G17,V24:W25)</f>
         <v>0</v>
       </c>
-      <c r="AE26" s="1">
+      <c r="AF26" s="1">
         <f>SUMPRODUCT(G16:H17,V24:W25)</f>
         <v>0</v>
       </c>
-      <c r="AF26" s="1">
+      <c r="AG26" s="1">
         <f>SUMPRODUCT(H16:I17,V24:W25)</f>
         <v>0</v>
       </c>
-      <c r="AG26" s="1">
+      <c r="AH26" s="1">
         <f>SUMPRODUCT(I16:J17,V24:W25)</f>
         <v>0</v>
       </c>
-      <c r="AH26" s="3"/>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
@@ -2660,7 +2634,6 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
@@ -2699,7 +2672,6 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
@@ -2738,7 +2710,6 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
@@ -2777,31 +2748,30 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
-      <c r="AB30" s="1">
+      <c r="AC30" s="1">
         <f>SUMPRODUCT(D11:E12,V33:W34)</f>
         <v>0</v>
       </c>
-      <c r="AC30" s="1">
+      <c r="AD30" s="1">
         <f>SUMPRODUCT(E11:F12,V33:W34)</f>
         <v>0</v>
       </c>
-      <c r="AD30" s="1">
+      <c r="AE30" s="1">
         <f>SUMPRODUCT(F11:G12,V33:W34)</f>
         <v>0</v>
       </c>
-      <c r="AE30" s="1">
+      <c r="AF30" s="1">
         <f>SUMPRODUCT(G11:H12,V33:W34)</f>
         <v>0</v>
       </c>
-      <c r="AF30" s="1">
+      <c r="AG30" s="1">
         <f>SUMPRODUCT(H11:I12,V33:W34)</f>
         <v>0</v>
       </c>
-      <c r="AG30" s="1">
+      <c r="AH30" s="1">
         <f>SUMPRODUCT(I11:J12,V33:W34)</f>
         <v>0</v>
       </c>
-      <c r="AH30" s="3"/>
       <c r="AI30" s="3"/>
       <c r="AJ30" s="3"/>
       <c r="AK30" s="3"/>
@@ -2836,31 +2806,30 @@
       <c r="Y31" s="8"/>
       <c r="Z31" s="8"/>
       <c r="AA31" s="3"/>
-      <c r="AB31" s="1">
+      <c r="AC31" s="1">
         <f>SUMPRODUCT(D12:E13,V33:W34)</f>
         <v>0</v>
       </c>
-      <c r="AC31" s="1">
+      <c r="AD31" s="1">
         <f>SUMPRODUCT(E12:F13,V33:W34)</f>
         <v>0</v>
       </c>
-      <c r="AD31" s="1">
+      <c r="AE31" s="1">
         <f>SUMPRODUCT(F12:G13,V33:W34)</f>
         <v>0</v>
       </c>
-      <c r="AE31" s="1">
+      <c r="AF31" s="1">
         <f>SUMPRODUCT(G12:H13,V33:W34)</f>
         <v>0</v>
       </c>
-      <c r="AF31" s="1">
+      <c r="AG31" s="1">
         <f>SUMPRODUCT(H12:I13,V33:W34)</f>
         <v>0</v>
       </c>
-      <c r="AG31" s="1">
+      <c r="AH31" s="1">
         <f>SUMPRODUCT(I12:J13,V33:W34)</f>
         <v>0</v>
       </c>
-      <c r="AH31" s="3"/>
       <c r="AI31" s="3"/>
       <c r="AJ31" s="3"/>
       <c r="AK31" s="3"/>
@@ -2893,35 +2862,34 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
-      <c r="AB32" s="1">
+      <c r="AC32" s="1">
         <f>SUMPRODUCT(D13:E14,V33:W34)</f>
         <v>0</v>
       </c>
-      <c r="AC32" s="1">
+      <c r="AD32" s="1">
         <f>SUMPRODUCT(E13:F14,V33:W34)</f>
         <v>0</v>
       </c>
-      <c r="AD32" s="1">
+      <c r="AE32" s="1">
         <f>SUMPRODUCT(F13:G14,V33:W34)</f>
         <v>0</v>
       </c>
-      <c r="AE32" s="1">
+      <c r="AF32" s="1">
         <f>SUMPRODUCT(G13:H14,V33:W34)</f>
         <v>0</v>
       </c>
-      <c r="AF32" s="1">
+      <c r="AG32" s="1">
         <f>SUMPRODUCT(H13:I14,V33:W34)</f>
         <v>0</v>
       </c>
-      <c r="AG32" s="1">
+      <c r="AH32" s="1">
         <f>SUMPRODUCT(I13:J14,V33:W34)</f>
         <v>0</v>
       </c>
-      <c r="AH32" s="3"/>
       <c r="AI32" s="3"/>
       <c r="AJ32" s="3"/>
       <c r="AK32" s="5">
-        <f>MAX(AB30:AG35)</f>
+        <f>MAX(AC30:AH35)</f>
         <v>0</v>
       </c>
       <c r="AL32" s="3"/>
@@ -2960,31 +2928,30 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
-      <c r="AB33" s="1">
+      <c r="AC33" s="1">
         <f>SUMPRODUCT(D14:E15,V33:W34)</f>
         <v>0</v>
       </c>
-      <c r="AC33" s="1">
+      <c r="AD33" s="1">
         <f>SUMPRODUCT(E14:F15,V33:W34)</f>
         <v>0</v>
       </c>
-      <c r="AD33" s="1">
+      <c r="AE33" s="1">
         <f>SUMPRODUCT(F14:G15,V33:W34)</f>
         <v>0</v>
       </c>
-      <c r="AE33" s="1">
+      <c r="AF33" s="1">
         <f>SUMPRODUCT(G14:H15,V33:W34)</f>
         <v>0</v>
       </c>
-      <c r="AF33" s="1">
+      <c r="AG33" s="1">
         <f>SUMPRODUCT(H14:I15,V33:W34)</f>
         <v>0</v>
       </c>
-      <c r="AG33" s="1">
+      <c r="AH33" s="1">
         <f>SUMPRODUCT(I14:J15,V33:W34)</f>
         <v>0</v>
       </c>
-      <c r="AH33" s="3"/>
       <c r="AI33" s="3"/>
       <c r="AJ33" s="3"/>
       <c r="AK33" s="3"/>
@@ -3021,31 +2988,30 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
-      <c r="AB34" s="1">
+      <c r="AC34" s="1">
         <f>SUMPRODUCT(D15:E16,V33:W34)</f>
         <v>0</v>
       </c>
-      <c r="AC34" s="1">
+      <c r="AD34" s="1">
         <f>SUMPRODUCT(E15:F16,V33:W34)</f>
         <v>0</v>
       </c>
-      <c r="AD34" s="1">
+      <c r="AE34" s="1">
         <f>SUMPRODUCT(F15:G16,V33:W34)</f>
         <v>0</v>
       </c>
-      <c r="AE34" s="1">
+      <c r="AF34" s="1">
         <f>SUMPRODUCT(G15:H16,V33:W34)</f>
         <v>0</v>
       </c>
-      <c r="AF34" s="1">
+      <c r="AG34" s="1">
         <f>SUMPRODUCT(H15:I16,V33:W34)</f>
         <v>0</v>
       </c>
-      <c r="AG34" s="1">
+      <c r="AH34" s="1">
         <f>SUMPRODUCT(I15:J16,V33:W34)</f>
         <v>0</v>
       </c>
-      <c r="AH34" s="3"/>
       <c r="AI34" s="3"/>
       <c r="AJ34" s="3"/>
       <c r="AK34" s="3"/>
@@ -3078,31 +3044,30 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
-      <c r="AB35" s="1">
+      <c r="AC35" s="1">
         <f>SUMPRODUCT(D16:E17,V33:W34)</f>
         <v>0</v>
       </c>
-      <c r="AC35" s="1">
+      <c r="AD35" s="1">
         <f>SUMPRODUCT(E16:F17,V33:W34)</f>
         <v>0</v>
       </c>
-      <c r="AD35" s="1">
+      <c r="AE35" s="1">
         <f>SUMPRODUCT(F16:G17,V33:W34)</f>
         <v>0</v>
       </c>
-      <c r="AE35" s="1">
+      <c r="AF35" s="1">
         <f>SUMPRODUCT(G16:H17,V33:W34)</f>
         <v>0</v>
       </c>
-      <c r="AF35" s="1">
+      <c r="AG35" s="1">
         <f>SUMPRODUCT(H16:I17,V33:W34)</f>
         <v>0</v>
       </c>
-      <c r="AG35" s="1">
+      <c r="AH35" s="1">
         <f>SUMPRODUCT(I16:J17,V33:W34)</f>
         <v>0</v>
       </c>
-      <c r="AH35" s="3"/>
       <c r="AI35" s="3"/>
       <c r="AJ35" s="3"/>
       <c r="AK35" s="3"/>
@@ -3217,7 +3182,7 @@
       <c r="BA37" s="10"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A4:T4 A3:AA3 W4:AA4 AA13 A11:AF11 A12:D17 M10:AF10 M5:AA8 A5:F8 A9:D9 F9 A10:F10 A30:Q35 K12:AA12 K13:Y13 K14:AA17 AH23:AJ23 AI32:AJ32 A1:AW2 AY1:CT37 AV3:AW8 A18:AW20 AV10:AW17 M9:AW9 AH21:AW22 A38:CT40 A36:AW37 AI30:AW31 AH24:AW26 AI33:AW35 AL32:AW32 AL23:AW23 A21:R23 A25:R26 A24:D24 F24:R24 A27:AW29">
+  <conditionalFormatting sqref="A3:AA3 W4:AA4 AA13 A12:D17 A5:F8 A9:D9 F9 A10:F10 A30:Q35 K12:AA12 K13:Y13 K14:AA17 AI23:AJ23 AI32:AJ32 A1:AW2 AY1:CT37 AV3:AW8 AV10:AW17 AI21:AW22 A38:CT40 A36:AW37 AI30:AW31 AI24:AW26 AI33:AW35 AL32:AW32 AL23:AW23 A21:R23 A25:R26 A24:D24 F24:R24 A4:S4 A11:AA11 AC10:AG11 A18:AA20 AC18:AW20 M5:AA10 AC9:AW9 A27:AA29 AC27:AW29">
     <cfRule type="cellIs" dxfId="41" priority="61" operator="equal">
       <formula>2</formula>
     </cfRule>
@@ -3225,7 +3190,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T22 T21:AA21 W22:AA22 T23:AA26">
+  <conditionalFormatting sqref="S22 T21:AA21 W22:AA22 T23:AA26">
     <cfRule type="cellIs" dxfId="39" priority="57" operator="equal">
       <formula>2</formula>
     </cfRule>
@@ -3233,7 +3198,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB12:AG17">
+  <conditionalFormatting sqref="AC12:AH17">
     <cfRule type="cellIs" dxfId="37" priority="53" operator="equal">
       <formula>2</formula>
     </cfRule>
@@ -3241,7 +3206,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE21:AE26">
+  <conditionalFormatting sqref="AF21:AF26">
     <cfRule type="cellIs" dxfId="35" priority="29" operator="equal">
       <formula>2</formula>
     </cfRule>
@@ -3249,7 +3214,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF21:AF26">
+  <conditionalFormatting sqref="AG21:AG26">
     <cfRule type="cellIs" dxfId="33" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
@@ -3257,7 +3222,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG21:AG26">
+  <conditionalFormatting sqref="AH21:AH26">
     <cfRule type="cellIs" dxfId="31" priority="25" operator="equal">
       <formula>2</formula>
     </cfRule>
@@ -3273,7 +3238,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB3:AG8">
+  <conditionalFormatting sqref="AC3:AH8">
     <cfRule type="cellIs" dxfId="27" priority="37" operator="equal">
       <formula>2</formula>
     </cfRule>
@@ -3281,7 +3246,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB21:AB26">
+  <conditionalFormatting sqref="AC21:AC26">
     <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
       <formula>2</formula>
     </cfRule>
@@ -3289,7 +3254,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC21:AC26">
+  <conditionalFormatting sqref="AD21:AD26">
     <cfRule type="cellIs" dxfId="23" priority="33" operator="equal">
       <formula>2</formula>
     </cfRule>
@@ -3297,7 +3262,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD21:AD26">
+  <conditionalFormatting sqref="AE21:AE26">
     <cfRule type="cellIs" dxfId="21" priority="31" operator="equal">
       <formula>2</formula>
     </cfRule>
@@ -3305,7 +3270,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB30:AB35">
+  <conditionalFormatting sqref="AC30:AC35">
     <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
@@ -3313,7 +3278,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC30:AC35">
+  <conditionalFormatting sqref="AD30:AD35">
     <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>2</formula>
     </cfRule>
@@ -3321,7 +3286,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD30:AD35">
+  <conditionalFormatting sqref="AE30:AE35">
     <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
@@ -3329,7 +3294,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE30:AE35">
+  <conditionalFormatting sqref="AF30:AF35">
     <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
@@ -3337,7 +3302,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF30:AF35">
+  <conditionalFormatting sqref="AG30:AG35">
     <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
@@ -3345,7 +3310,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG30:AG35">
+  <conditionalFormatting sqref="AH30:AH35">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
